--- a/data/trans_dic/P43C-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Dificultad-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.473405899350247</v>
+        <v>0.4715778504679781</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6369751545186435</v>
+        <v>0.634948928182775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5827989252383087</v>
+        <v>0.5823305384640823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4407387978135339</v>
+        <v>0.4400782790300558</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5405838093779061</v>
+        <v>0.5356345330178208</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6931359972526137</v>
+        <v>0.6957228220830201</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6396416125837658</v>
+        <v>0.6384245046022263</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5203600058680915</v>
+        <v>0.5181500649663775</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.6442340330216145</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5231726962237593</v>
+        <v>0.5231726962237592</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4772865800111467</v>
+        <v>0.4759233216571105</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6278430361423311</v>
+        <v>0.6212620498292923</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6106930281463955</v>
+        <v>0.6136612476818341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4900616545272096</v>
+        <v>0.494668590478651</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5357390179799092</v>
+        <v>0.5399316689814374</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6835871663963945</v>
+        <v>0.6811626438983819</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6719278682750155</v>
+        <v>0.6752604723832636</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5536320841988761</v>
+        <v>0.5548151162578913</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.6298215881392115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6272400103799245</v>
+        <v>0.6272400103799244</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5339787533466246</v>
+        <v>0.5305913896608488</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.574639173639667</v>
+        <v>0.5727663767030688</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5944047458206778</v>
+        <v>0.5931069362031751</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5942024661231519</v>
+        <v>0.5944976278161936</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5996328957802407</v>
+        <v>0.5918807587740221</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6444489587694637</v>
+        <v>0.6415076754569562</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.663737176135029</v>
+        <v>0.6649421094836897</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6586813031844337</v>
+        <v>0.6558899110122137</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6005630683651381</v>
+        <v>0.5984909311461107</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.63389913402216</v>
+        <v>0.6347210715403849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6743017974523606</v>
+        <v>0.6739947426624192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6351541952999723</v>
+        <v>0.6315342398198144</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7040810214839018</v>
+        <v>0.7027859164588778</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7252245282705325</v>
+        <v>0.721461763172991</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7564966053669557</v>
+        <v>0.7568008925148041</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7048663990372167</v>
+        <v>0.7031675623889948</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5222618026043042</v>
+        <v>0.5210415545458811</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6338930829029384</v>
+        <v>0.6344763771124087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6224085681356459</v>
+        <v>0.6221976631974629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5604004014492804</v>
+        <v>0.5625405349903034</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5562458263104828</v>
+        <v>0.5578790508766288</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6670516470532457</v>
+        <v>0.6670176510163902</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6564830049331338</v>
+        <v>0.6554633997551503</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5943116952902021</v>
+        <v>0.5963806444419297</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>434701</v>
+        <v>433022</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>704752</v>
+        <v>702510</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>728910</v>
+        <v>728324</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>224654</v>
+        <v>224318</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>496386</v>
+        <v>491842</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>766888</v>
+        <v>769751</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>800004</v>
+        <v>798481</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>265239</v>
+        <v>264112</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>498128</v>
+        <v>496705</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>679219</v>
+        <v>672099</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>607179</v>
+        <v>610130</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>410424</v>
+        <v>414282</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>559133</v>
+        <v>563508</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>739524</v>
+        <v>736902</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>668062</v>
+        <v>671375</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>463664</v>
+        <v>464654</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>520220</v>
+        <v>516920</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>499246</v>
+        <v>497619</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>453149</v>
+        <v>452159</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>450132</v>
+        <v>450355</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>584183</v>
+        <v>576630</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>559897</v>
+        <v>557341</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>506005</v>
+        <v>506923</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>498977</v>
+        <v>496862</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>197632</v>
+        <v>196950</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>285086</v>
+        <v>285456</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>324753</v>
+        <v>324605</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>411604</v>
+        <v>409258</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>231698</v>
+        <v>231271</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>326158</v>
+        <v>324466</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>364339</v>
+        <v>364485</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>456780</v>
+        <v>455679</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1705299</v>
+        <v>1701315</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2222915</v>
+        <v>2224960</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2171535</v>
+        <v>2170799</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1542667</v>
+        <v>1548558</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1816264</v>
+        <v>1821597</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2339194</v>
+        <v>2339075</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2290418</v>
+        <v>2286861</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1636018</v>
+        <v>1641713</v>
       </c>
     </row>
     <row r="24">
